--- a/OptimalSolution/elapsed_times.xlsx
+++ b/OptimalSolution/elapsed_times.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.851486206054687e-07</v>
+        <v>2.026557922363281e-07</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.96761703491211e-07</v>
+        <v>3.094673156738281e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.389026641845703e-06</v>
+        <v>3.981590270996094e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.974344253540039e-06</v>
+        <v>5.075931549072266e-07</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.775192260742188e-06</v>
+        <v>6.427764892578125e-07</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3.836631774902343e-06</v>
+        <v>7.691383361816406e-07</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.514860153198242e-06</v>
+        <v>8.594989776611328e-07</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.838964462280273e-06</v>
+        <v>9.825229644775392e-07</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.355617523193359e-06</v>
+        <v>1.071929931640625e-06</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.101207733154297e-05</v>
+        <v>1.180410385131836e-06</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.366901397705078e-05</v>
+        <v>1.308202743530273e-06</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1.502585411071777e-05</v>
+        <v>1.416206359863281e-06</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.754307746887207e-05</v>
+        <v>1.523017883300781e-06</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.025294303894043e-05</v>
+        <v>1.622676849365234e-06</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.216124534606933e-05</v>
+        <v>1.726627349853516e-06</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.720522880554199e-05</v>
+        <v>1.849889755249024e-06</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2.878022193908691e-05</v>
+        <v>1.951217651367187e-06</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.287887573242187e-05</v>
+        <v>2.092361450195312e-06</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.706860542297363e-05</v>
+        <v>2.216339111328125e-06</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4.15651798248291e-05</v>
+        <v>2.266168594360352e-06</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4.561543464660644e-05</v>
+        <v>2.405405044555664e-06</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.799866676330566e-05</v>
+        <v>2.561330795288086e-06</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.436444282531738e-05</v>
+        <v>2.594232559204102e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5.709242820739746e-05</v>
+        <v>2.719879150390625e-06</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6.246519088745117e-05</v>
+        <v>2.820014953613281e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>6.946325302124024e-05</v>
+        <v>2.966403961181641e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>7.126569747924805e-05</v>
+        <v>3.0517578125e-06</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>8.482217788696289e-05</v>
+        <v>3.154754638671875e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>8.524537086486817e-05</v>
+        <v>3.34620475769043e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>8.978962898254395e-05</v>
+        <v>3.543615341186523e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>9.736132621765137e-05</v>
+        <v>3.458499908447266e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0001027672290802002</v>
+        <v>3.581285476684571e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0001157698631286621</v>
+        <v>3.814220428466797e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0001162426471710205</v>
+        <v>3.805875778198242e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0001233587265014648</v>
+        <v>3.926038742065429e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001317465305328369</v>
+        <v>4.062891006469727e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00013081955909729</v>
+        <v>4.134178161621094e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001392843723297119</v>
+        <v>4.261255264282227e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000148543119430542</v>
+        <v>4.357576370239258e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00015340256690979</v>
+        <v>4.452228546142578e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001669018268585205</v>
+        <v>4.575490951538086e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0001799397468566894</v>
+        <v>4.707574844360352e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0001844034194946289</v>
+        <v>4.799127578735352e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0001941890716552735</v>
+        <v>4.897356033325195e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0002041335105895996</v>
+        <v>4.979133605957031e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0002105412483215332</v>
+        <v>5.173683166503906e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000206803560256958</v>
+        <v>5.270242691040039e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0002256917953491211</v>
+        <v>5.34510612487793e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0002307326793670654</v>
+        <v>5.487918853759766e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.000228888988494873</v>
+        <v>5.590200424194336e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0002599446773529053</v>
+        <v>6.029367446899414e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002668304443359375</v>
+        <v>6.415605545043945e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002631402015686035</v>
+        <v>6.876945495605469e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0002689619064331055</v>
+        <v>7.357120513916016e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0002806696891784668</v>
+        <v>7.829666137695313e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.000290175199508667</v>
+        <v>8.218765258789063e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0003092517852783203</v>
+        <v>8.670806884765626e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003119409084320068</v>
+        <v>9.06062126159668e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003286139965057373</v>
+        <v>9.460687637329101e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003559145927429199</v>
+        <v>9.804487228393554e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0003804609775543213</v>
+        <v>1.02841854095459e-05</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0004241976737976074</v>
+        <v>1.075077056884766e-05</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.000429107666015625</v>
+        <v>1.108932495117188e-05</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0004428064823150635</v>
+        <v>1.171875e-05</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0004322617053985596</v>
+        <v>1.240897178649902e-05</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0004494917392730713</v>
+        <v>1.274633407592774e-05</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004493246078491211</v>
+        <v>1.275634765625e-05</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0004658546447753906</v>
+        <v>1.313471794128418e-05</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0004835963249206543</v>
+        <v>1.368379592895508e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0005031478404998779</v>
+        <v>1.405119895935059e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0005198822021484375</v>
+        <v>1.433205604553223e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0005389995574951172</v>
+        <v>1.472234725952148e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0005708935260772706</v>
+        <v>1.522111892700195e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0005779316425323487</v>
+        <v>1.565146446228027e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005972321033477783</v>
+        <v>1.601171493530273e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0006207456588745117</v>
+        <v>1.653742790222168e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006445076465606689</v>
+        <v>1.683306694030762e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.000666579008102417</v>
+        <v>1.722621917724609e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0006863608360290527</v>
+        <v>1.756000518798828e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0007105605602264404</v>
+        <v>1.797580718994141e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0007343218326568604</v>
+        <v>1.843523979187012e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0007582814693450928</v>
+        <v>1.904535293579102e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0007907006740570068</v>
+        <v>1.930546760559082e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0008092575073242187</v>
+        <v>1.964235305786133e-05</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0008323426246643066</v>
+        <v>2.001428604125977e-05</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0008597161769866943</v>
+        <v>2.033114433288574e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.000884202241897583</v>
+        <v>2.072954177856445e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0009286293983459473</v>
+        <v>2.111077308654785e-05</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0009380154609680176</v>
+        <v>2.153396606445312e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0009663252830505371</v>
+        <v>2.188968658447266e-05</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0009940822124481202</v>
+        <v>2.235174179077148e-05</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00101892900466919</v>
+        <v>2.269053459167481e-05</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.001051791906356811</v>
+        <v>2.303576469421387e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.001081784248352051</v>
+        <v>2.342700958251953e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.001119928121566773</v>
+        <v>2.378511428833008e-05</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001143988132476807</v>
+        <v>2.416133880615234e-05</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001171573638916016</v>
+        <v>2.461504936218262e-05</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001204003095626831</v>
+        <v>2.489328384399414e-05</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00123764967918396</v>
+        <v>2.52835750579834e-05</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001274409532546997</v>
+        <v>2.57110595703125e-05</v>
       </c>
     </row>
   </sheetData>
